--- a/biology/Botanique/Clematis_patens_'Sunset'/Clematis_patens_'Sunset'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Sunset'/Clematis_patens_'Sunset'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sunset%27</t>
+          <t>Clematis_patens_'Sunset'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'Sunset' est un cultivar de clématite obtenue en 1978 par Arthur Stefen aux États-Unis. C'est un des cultivars les plus multipliés dans le monde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sunset%27</t>
+          <t>Clematis_patens_'Sunset'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite 'Sunset' est une clématite à fleur rouge surmontée d'un bande rosâtre, de taille moyenne, d'un diamètre d'environ 16 centimètres, qui possède entre 7 et 9 sépales. La couleur jaune des étamines de cette clématite se mêlent parfaitement avec les sépales elliptiques qui sont parfois recourbées.[pas clair]
 À taille adulte, la clématite 'Sunset' peut atteindre environ 2 m.
 Elle ne possède pas de parfum particulier.
-Feuilles
-Les feuilles de cette clématite sont parfois simples, parfois alternes.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sunset%27</t>
+          <t>Clematis_patens_'Sunset'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +555,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de cette clématite sont parfois simples, parfois alternes.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sunset%27</t>
+          <t>Clematis_patens_'Sunset'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,15 +592,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France la clématite 'Sunset' est un cultivar très produit donc fréquemment distribué par les pépiniéristes.
-</t>
-        </is>
-      </c>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sunset%27</t>
+          <t>Clematis_patens_'Sunset'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,12 +620,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Protection</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clématite 'Sunset' n'est protégée par aucun organisme.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France la clématite 'Sunset' est un cultivar très produit donc fréquemment distribué par les pépiniéristes.
 </t>
         </is>
       </c>
@@ -616,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sunset%27</t>
+          <t>Clematis_patens_'Sunset'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,10 +653,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Sunset' n'est protégée par aucun organisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Sunset'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Sunset%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite 'Sunset' est adaptée à la culture en pleine terre ou en pot.
 Cette clématite du groupe 2 fleurit sur le bois de l'année précédente au printemps puis sur la pousse de l'année à l'automne. Elle résiste à des températures inférieures de 20 °C.
@@ -642,44 +699,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Clematis_patens_%27Sunset%27</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Sunset%27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Maladies et ravageurs</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clématite 'Sunset' est sensible à l'excès d'eau, ce qui pourra provoquer une pourriture du collet de la plante et ainsi la mort de la clématite.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Sunset%27</t>
+          <t>Clematis_patens_'Sunset'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -694,10 +720,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Sunset' est sensible à l'excès d'eau, ce qui pourra provoquer une pourriture du collet de la plante et ainsi la mort de la clématite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Sunset'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Sunset%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2002, la clématite 'Sunset' a reçu le RHS Award of Garden Merit de la part de la Royal Horticultural Society en Angleterre.
 </t>
